--- a/dados/brsomeacessorios.xlsx
+++ b/dados/brsomeacessorios.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,14 +476,14 @@
           <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>499.46</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -501,23 +501,23 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=Ns7ZXsh8U054PEq%2Bb%2BYvZ7B0yGEMTrFaawyLeAKdtCAYPoEazMA8CWo%2F5dF8T4zCVSbg%2BILkJOVlNv8kMv2mb4gfCSwgmo4YxNy0Cm0R7Kpo3EIuLQw0MBbgoTPJCYISv0IcKzL%2BY0V9%2F8aaP9EU0r%2FbcKIpPHPxri5254Oc6NZ20ZrVl2qcRFXC6TYyhDr%2Fnq8W7B9mVjBxGZQVHPaRdRUoMPDIeIGmbzr34tT8Th0XeKdT%2BCWGyEqBET95DPgmRO9YD3MrtBVWClwGOcRn9vtIKDONY5fIPQtW544ziJEhQ7XTYsLyGsuiPLmyP1eSks8LeLBaEqfX2PB6mL3KcEnRYE13Gl8U2iUtTFhZnfcNtWduyi9GJrv9yHclR3vaSlkPDvom3%2BmCBy93njLG1Ceq1pcIZr3Ci95gP%2FTB1XIgVuCYAbCwCDwyFYwZKLgwFU9siefU4L3fC9Flwims8%2FS7iR67EPd68c7TNivI7VlZD2lHCF%2BjTQUGUze81eObjnfD5SrwE78u3bzKQQe6WQ2Sw4WeFXh5%2BgZn%2BONUthAYJC4r0VJoyOSfDizitsGnwfMFJG9X%2FPM1jbR1FtMVNIW1iY4dg%2BKm9DhUTD9PDP0%2BZD4FKIPVOrWW5uXYBoHHJrJIsSNImXQD3DujWdQtUmOZW8pamjUcnP0s6FmF1V09pZnImLx10IADLmsbSiLrwsbpg6fGgU5%2Bx10orfxzi8FlP3ZWOYtPXaxdeojuXCZ75NjWrBORdvEI3BunC3KgERXGe7Q05r4aXgAwFtYTvLflo53Rvt%2Bj2tAsPJJ1Jclxu%2FM%3D&amp;e=mclics%2Fpseudo-search-pads-buybox%2B7708%2Cmclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928&amp;rb=x</t>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=t4wzouotTfolJXVYwi2u0yGXIIKbKix32w8V%2FwCUQQaucWcHht1sY%2BEtUrQ1NXJi7%2FS9I8Au9ExiC%2FDf7zSbuj6o1vcgYAM85YWgpcI18%2BStTqZGgj5ybHKyz9rzJ%2FtLlE5uUwF6GqbuiHLRBIjEs%2FT1bqWMzjNiabUKl7rB7VlmKZjFUPOEaZG8RSjnsTLm7bK5R0LajZWfp%2Bx6smeResOjzUUlRJy7YfrbIvYsBucGlgNv63%2BGEdK4htANGkmqvI0D2%2Ft%2FMArvHPfVa9w2f%2FEi%2FO2HoF4DsIpI1mmopR2D%2FijsK0s%2FCXpDq0%2FSocN39%2BuQfehXrhFmNMJ1i8G6sj6a06aPCHbQwuckBDgXK9ZL0cqWCb46HvCtUM2TXiDtrzRFX2kbIADQd%2FsqXBK3502NvaNzTgzINgFgI70PYHTtFCafj5ozjNpl9L6D86wg8O2aW%2FeDFEiutnV9fpNpZenOGSQk4pyS2UEqyzIKoV8XqGHaGQi607XMeeFzPeeBp4JfRNBsbenPwwujNcRH2SETi%2BB8JB9BP7C4m8kxMNJKPKej9fOgtEQkfbn03ZGlyvTbdR%2B5pzljrE%2B9Y9EBnwaWJbaSu50PpDTMCA4dNoDwsPTnHom%2B6I2pAvnZuzUtENOqSt5T2rXwR4MF8pbw5PzTwiCVWgtE7XxK2%2Bms451GHJ4QrGUHIkXdqPQh%2F4qaKnipmXhYDU5Pt2a5pIEwpnizkfXubVn0%2FSJx%2BTwakKC6%2Be8myPslAfeRmpwk5FCYf8uKq5HjCf6tgKKyPmSFu7oYuPh%2FpSfvqchwhm2Cdng8kA%3D%3D&amp;e=mclics%2Fpseudo-search-pads-buybox%2B7708%2Cmclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928&amp;rb=x</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>499.46</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>422.93</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -536,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=WaAwYXvIx2g53j%2Bi9PcecNRLZDzCFcwV20iLmNhIcc9ePhuPT1pcJW7bn009q40LGewCmaVcnv5iBbWcHh%2Fdr%2B9YqA9NLRKrq3TlkZkxncxG3zzU3PeE7ottZmMX57PGmF0g9EuEuCjbOtmic3lRM6XBJU4P1GVY7zHd%2BP9%2FoiKecm0nYE7kn5A%2Fi5I4K%2ByNNtodx%2FuGhubJusgFxM7X6beOC1XDfUONfY3kvFQWtOZjP5EvuDxzYch1E3oh5tgc3cwHjHl1B8%2B95IyXpmu1vKB%2F95Z%2FsxR%2Bax2vYOGwgBcUsmKX1E%2B6vvKo24LkR%2FsZu4LGnU97Dut%2BlADEToYQwTvyRWRKvtxjcdFGI%2BqNJOgVXkv0dirm2oYFbTEOl4K5MDdexZa4%2FMCmS8AAH1NzMHOftePa%2FHs9QNv9euqMcmcCKg3UeJCaZ68K0bPM2mdNpPQC%2FMujP5w34gNC6rdOsu%2Bb1draKFuDR%2BM43bxpisL60vsBG5T03iUE0ToWD8IQEtSFnTQPqdg8YOBD3MpLxtE8EQkFwcfEoxal5BnHq0Lr1JhL4anEFfz4YXQHTC6czpixH2tYQBtxRexcRm%2B4YrDIOKVg6wZrCTIJOBK4hXV7z9g6JSPxMnuThADTzo733M7IKqxca1ng9GJyJCmV946N7NMtuigCDa1RMQ1OJ94RHkbLmskvUo1cvqSmSSzNYlcO%2BlrATso7EUtebpvlEXv5dOTz%2B4V2GWWYSFbngyTSPW9EWwIkSfUTquviwsAQRO%2FDQBNamYRUyq9j04RfAWVHG8FV4eYw9rybEM6r2IQpRWiXvFuH&amp;e=mclics%2Fpseudo-search-pads-buybox%2B7708%2Cmclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928&amp;rb=x</t>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=C2kl%2BQsqLmmlhpgP7VRmN4PjU9mHAaiYgJIK%2FLq9GAXhFT715%2F0E4T98JINiIcIfN431OUsqidXS3m9hcZ%2FmLEI7f8ZxRET6qWIJKaA1oXqPjM1iNCyyWN22Gg%2B%2BJk6vudy5j0PiS86QArNtJa3f3CtyPmzijU0i8E2tOtvi%2FX5EtVebPA%2B%2FU9bozMCd5oxbaISYjd5DIDxFJXSyeiAIWP2qr23ruFfYoLW54c34PJTrw8CcYLmL4aPeP%2BMtXwE509sqKLcW1fB0jdP%2FSQhd5XnKqljWej8gnsdvBTitvLO%2FkAHMuHB8nxkRe8CWJNxATlEDutGF%2BqZc%2FoRZMS8X22EClsVHhgmkGBH5h%2FZBT3Nt3oAR0evxmV01zDazHOe7H%2B%2FcUIko1jxS8S0aoD1c1wnIkvB%2F6qHKomMn3YLQ%2BgfKwhQsVtoRCqyrTe1sF4PymXKiMIOwEF4oB42icoMseQc0NBYcxzqcmmue9su7zgJ9R1P2VE%2BspV4rwPef8Vn3f%2FuPMsGYXWWE1Kv5T3LbvgF5brX5aTHhozlwp2PdxE1l84tfaDKn85J0i7rIdYgyIKMMzzD4p5fkiu1q0BPyVSFSQ3EP2c3P9X%2BHquHLrBh5qd4KCVStD%2BvRjl9UIThscg%2FVDznELZt0A%2Bz33ksn2q%2BARZ8fO6vsIWMA5MmsbHGF9v6eXuptTI0Az4uR6ZTvO9ROP8bJBYPc8iEy6BvJOdBRxZqoa0iCbATl5m1Rs8TSMM9g4YKaOPavqEnkOtRyuXd4XLs06Lo%2FsGueZBTvOnsTlmAOUbGnmYKSImBGewwabTCVmY4BRYER1jRmgw%3D%3D&amp;e=mclics%2Fpseudo-search-pads-buybox%2B7708%2Cmclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928&amp;rb=x</t>
         </is>
       </c>
     </row>
@@ -546,14 +546,14 @@
           <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>443.07</v>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>FONTE 90 BOB</t>
         </is>
       </c>
+      <c r="C4" t="n">
+        <v>422.93</v>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -566,28 +566,28 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641#searchVariation%3DMLB21562641%26position%3D8%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641#searchVariation%3DMLB21562641%26position%3D18%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>364.95</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>845.87</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -596,37 +596,37 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=3B%2BY8m3oYMCNmJSTW3lOUjnt9SQcHANtk6LDLl7sktj2cp0xlcmBE0h0zYEe89w1NeaqdhlDpTFQU040%2F9AAef7t87ukXOppkXB%2BX%2F1T%2BGAm37jov%2BgsgPl7bIFq42r1neVMLs9PJTCqaqOLAv%2Bl2ntnAaVFtvLlu4Pama7U7QuemaO%2BJU8vhNgX0oXrWCssQXJ13gBYfg8ka4cCfdEqHB5aIy2vT4qiUsuXSmOKRLwcY3DBBj8ruE5DaAjDHs5xApNxX%2FKWZZ4OBu3Ws5bw4gQ7DYv4Q%2BCMUAkDshTf%2FgcQHT%2BfB3e6D%2FFf8utXYLy7IbQc8DuDv8ivRY%2F10RpcwBC%2FB4gcwX1%2BM1h6FWWYR84qEH0FhFlnDaq7ItYzQbqpdxPgPNBpgzxm17xkbUf6qIi4AWvw2Cz%2B7Hd6hyvcjKoavVHYiVXI4K3BUiLwlMfTBIn779O1gLmBwukPAQMzOZZk6tQuCsylbrlH2c%2B1cwXg1B2BCUO7J9QRhehJFnba%2FfwUx4V9HUW%2FKyKm6Ho%2F9eYFBAlLhEEikwLYKL3eo28Wf4Zyt5xvArgXOQ2tJcvlbR9egdFtgcKc6CWpaVKeSAcIVarLKQKsty8rILBgK%2BLjOGInUxm%2BvhP5%2B4gBgtFbellsdKL4Em18teBu5R1iGawhacEP08%2Bea1A%2F9YOYZBfYBfOyj1kk5wLWT8cjEIXGsQyP4k8Hu2MCiKALiyk0PrQYqe6YkBxrlf9gtOYfJYu8S5zUebSbJ%2B5gynJ%2BF5g2X6Z8NrnQQ4eAcJONA1hhZI8l7COsKL9RShl0uiWZ8g%3D%3D&amp;e=mclics%2Fpseudo-search-pads-buybox%2B7708%2Cmclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928&amp;rb=x</t>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=7VyrviiM1r0aUt1rOUI3jWqOkZ7b3DLGqRD02Se2QzlMfaHoljz2VJoc4oeyqqzNksXLJZs%2FP8uBUu7uE00qS5HnLfrH8Ej50nOe9VzkxFtwek9il%2Fcj3%2BGCnVhkmq%2FtshvVAaa5CcNFlKbpudD%2BdQg7f%2BND4I7OKtQxunLIKNmoc4O3mvhWRpG5CALtrpKOidWT%2BX3yjZN4Fa191gGqk0zl8chwDjpMEJYvpenGAq7l3ddPxAONJYdYWdcpHUArR5epPHfnUD958My50lqsqqcVytAroKZDpcAIqAk9nxhKPwcGe%2FtCtnl5Ef08g8dihxvxxEpyMuSvxN%2BVJY0d9N%2FM5aQoymO6EHaPT1ps47CDDGZhETOFg%2FMH1BV1Xt4tEDC1%2BtePXNKZ3k6wuL93%2B1zFWZuPe3oRH4aWGq2VC8AUXtVrxxYWWTDugbG9PZ5CX1kTUsVY%2Bp8Cn3Y67aklGs01SodShZcTwA54GCpyzqgHnQJD0t1cpwBbOTCB7CyYJGRL5J2S2oZnFVY%2FcPl8RuWawwQWMDt9Em2aYsv0evbFIy0cZl2PldaYy4lg9HJe5QZ93%2F%2BcjnyyC4SJoQ6WtXHhs6tj3cLAdBf2PB0btSWYgkixuW2Uivc15er4h2J769H3WQyUWSzWwesjf38em2GEewlcrr2dd1XEa%2BudesWEniBttw%2BGI%2FleCkgD4r1VMqKy4RkPrAYz2M%2FkOvdM3a3SG0ZhWT8yWn3oZimT7cbS5X7aUeD4qoNFnXW9xWwsFighXQVBEZd5ub2gCFzfGVaGJAF4T5EQpN4VUH5Db93Bc5DFLgG45OesHO0eMHA%3D&amp;e=mclics%2Fpseudo-search-pads-buybox%2B7708%2Cmclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928&amp;rb=x</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>681.83</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>326.53</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -641,23 +641,23 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=KWOpgiCH7xFqfb60oG9W9bo0lrtoN7leJVyQAz8x4uiNbvDPd%2BjTFy0K01qMRSBiYDpMOsOAAqRPQNEfddvngWlLn%2BLmSEIkzKYnwY6ZhNRiEXS%2FgUh3ErLPxQE3SKoLRq3B%2F4wLfZeKdGKR%2FwuY5Buhed7Cy46sYQAWXbHQf2JrK1fgNY3VjzV8bkhaFzHHhDZPn9WQAQYVrVnxPDey%2B7mLgCjHYdq7eurCs%2FzYWpR6wogRf829TWYJHDTII7Mu5ay%2Ffk8%2BF309Wbfz0667VIRMKwo2x1suPMKoOsYACC0vzYAjgWcLIOLVnBnYMY5V0JLBiuFUAhHhuJcLJMgbrVVIHyP70w6wdXA31NyUk%2BxmM7SiU%2Flyf9RdAbFY3ELDrkVKNKGH4hy4qRUYr1z11vTarCgSNuQ2HmEClP7nUiGiOc%2FBlFV8xhjANiEmIKeqTXwlWLzedrCqJThSIwQbz1HEe8X7cDykfIssFyna%2BBt5Pe8F6HFnVWb1dS4EiyrX40iIQNsGG4N%2BLqxGzvlfoys2OwaEiirTid3OtwT2bI8GpXt5TWfV%2BQLW8GINF2aYTGsi4u5iXfHN24KccFDUZA%2Fo%2Fc%2BCFWItP7czQO06FwwxYmv%2Bmf48ztOpzPpcz0wyb%2FVSezvUobLIFyGBo%2B8eh1sXiJc9rzReYVQNvoO9P4WSLsYNQR2hH%2FuJcoR5OCNGt3MLce4hhLaTI2my%2BrvX2V8AAHM%2FC9Ouh3WpxRqF6GsrwEsJOdN2yv5CNqY%2Fn5etyHJPEBtqp5iKdcaivPQn%2BfpjZ25KzOO6x5JBfrb8jR0mf%2BQlQ4Cp&amp;e=mclics%2Fpseudo-search-pads-buybox%2B7708%2Cmclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928&amp;rb=x</t>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=7y4bBz3xfKANBNXssMdhla8dYlRMUWzMuAiyf0JOLrTZ0Wi%2Fw9h73Msf49qU1TjEXZF5OXPr7T9h4Hc831xg5EZuL%2BTBEgmmnCa%2B9c%2BubUOZkMRuYcQTJ4fAljXZx7z71dPXTJl6jrFUs%2BrrJqazdItiv%2FtEsF7kZNQWgACEji7kzLtWghJpn3A5zpKbVqC24Iof%2FlSvbrtvvqRVPXTQbjr3Tj4ph%2Fdv3UJwnGicR%2BAcsVfJQBf0TU6L3GbhY%2BJxgIEYj2YwyEnVw96sjk2fymErMh5FdlZ8YFqkCLMOnZoR2U9RntTfO%2Bnr95V9LZ2eA6901F1tfIQBm%2Fx51KhJQNs0JIQxP4ERpZe6yyaUo5IiY3pVdCP6evLHfPN%2BCK27mgfFI43XKRZsG916qF1YKQClCaBuQA6yu2H9oX4YphWU8XbeXtun%2FrxiT8FgLM48VIrXWOXXok8cdHPeS4SsBHTU44lZIdAdJEjuTztGVUV05TAVHZTyUtA29O6iiUiVTBlPNYT%2BuunvZM8E25JtU6ALnyzuQsT5LPjTRSZzp1xi%2FTVCAcAcSxZN%2FsXAhr3s%2Blg6%2BlSHMmZgB7NCe2l9BYmOa4Kri8cBb5atC9zJFYgdL8MN8sPIG2HaWhyotcT7s%2BJM8THWhPeHFkhWlXTKWCsWiKYk3tSqH4YVorgxqhDi4P14%2BfipGD%2FfgRdDEY6JmV8sTsHl%2B4IBAbGIzMWkSnlcjnuZ2ZlRRPd6LVVcrn2nmJZF4yGNiTrfSBtSfDOdZiH7uV%2BJX7rYzqJrDDJZpOs5S7YI6Gzy5h0BEbhJkw%3D%3D&amp;e=mclics%2Fpseudo-search-pads-buybox%2B7708%2Cmclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928&amp;rb=x</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>499.46</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>845.87</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -671,37 +671,33 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397#searchVariation%3DMLB22144397%26position%3D12%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561#searchVariation%3DMLB21348561%26position%3D15%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>805.59</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>58.13</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -711,23 +707,23 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561#searchVariation%3DMLB21348561%26position%3D7%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615#searchVariation%3DMLB28687615%26position%3D11%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>536.26</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>FONTE 120A LITE</t>
-        </is>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>493.42</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -746,7 +742,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=11w4Csr%2Bu2m14vmGtfw2A0pl6G5rDjnbRuq4W16NZtb5HRfia0qCYBvW9oWP9urKet3GjSB%2FpQuAIPBz3qXrnIR0pJFQA8JYkObB3jP5X6%2BdAX9eMqv%2FDwlYCvsTSVMgaQLiEsPxiaH6DEcTo9e%2FCrIjQbP4RpRNhaKETFG%2B8O8JHVgDYNv4Aql6D4nTh8mWlrVfKwR73gtrgAieQL00mLnDlwIXSF0vHRy1ZfA5t6VmLPauWsvlvIMa4a5ogObXAvcQt%2B2mlfb8cgMyCOjQiKR7KSF6WnJXDkB%2FN%2FIvlugHE%2Fkb%2BvUSiqu0ODUjH7Le7FO9hx325OLKp3S7EO%2F63P3sk0s75K1%2FXxzpKR3r%2B8YBM65fzxkcETR0%2FkqRxmt%2Blf4QD5NOQwWM2oY8nx%2BNB6vcqM1cK2RDeId5%2FmXVPD2gWMT4XAvPRMXc6U7ciA2bIXgCy6jlji3erRanC%2FGPkah1Y99efICVpV5otSDazGQbHvdMsZuWsT%2F9kO5HfvLOdeVViWSxGjrvCFWu9qcLFnqDPIOwQ05vVI6l7EKu4kxWmvllHcD6n6DauPa6p7ObaYPCiMysAu3pLWJOP%2BPkZUhbNfEsegqUrSHLYjxZZldaOLEwT9e71JOpqD5ZzAEmni8gX83Ll7afYXZ5czzNiYekVuQxZkEc8po1IwRfAjMGuSJn6DeYYQqwPVlFfULZQ1hGBv6N02QUmzGgssUIVhVg9WVTaHAYHFpz4QYeXWcyBRJzUI6tH7LQdJRKs85YBDTUUw87ZilfINkkIxkbtkNtBLGSDpKSR%2Flb3ilaOE5jK0nn%2BL655IcvKFbkP85pmL8yLM0%3D&amp;e=mclics%2Fpseudo-search-pads-buybox%2B7708%2Cmclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928&amp;rb=x</t>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=vj%2FyIh%2BlMkw5IHAQtQadVTrJAqDMwZP7Kwr6j4PQBOoufcJL6d0wqpcx2sBbHJH5rIinKT45bZUvKWVUgsjjBV9WVwp9%2Fz8GR%2B27kcpSp42vyjJrk2arV6vFZMiPRzVV1IImAVqcNCxh3QATseTS5k6xdHT0OtdqJ%2Bndwa9Ilq8Doti2NwFcj2Hv0woJ9W0ReNjSe2hQK%2FzLa5q32GaUrtzSG2DlWWy3ONlOq1htSzooM3h2Mw4RC3YOVDeFiaOKl%2BkzS%2BCu6pu5kzb4kkSGVA6%2BWGZ0mm6T12i62aA%2BKmgCZkHgL5%2FlYzSNS9xpPCgwy0EpqQRro43mS3vEVsBs1mNbWMCkocqKBmuUFNvsGrZlnLOM3nOjemKPoWrHrJmG0b5f%2FEWVuejFUymXCx8QaRA0mnnz9m1cisLgerwD400oadgN3ulh6bI70SooOesyRxGL%2Bi%2BPMDWkL3fF%2FlgiV7jRr7np4IQwFkvGbopITB%2Fggve80qTSQI4%2FcxwS9528aLOjMsWxX3DWklUQBDkXegVeoTOq9tWlfthsTR9NfFhy6DY0uJfs4HO9KOKxOuGoljz0N1D54fOByfa2krcOQq6mxQN1E1hUlsD3qKk8eC8HYjd%2F6%2FAsg3zraMQbQbVi%2BXsaCJe4sCYcN1qkIjCPGAKKBde7PwWuqAnBYsJbg5%2F6gA%2FB69NBIROFGLO2VCNBt%2F2Xl5AKlumQk6Rffcou05B8HrZmX4DVbFk%2B3hC0bRqI%2BJc%2FnPXtSh5t7qPRrA7aStQxIxrcu2K1%2BO6iiFsfkYWGEtG62wK%2BBgEjLF%2FcnGYUfR%2Fb&amp;e=mclics%2Fpseudo-search-pads-buybox%2B7708%2Cmclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928&amp;rb=x</t>
         </is>
       </c>
     </row>
@@ -756,14 +752,14 @@
           <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>624.33</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -781,23 +777,23 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408#searchVariation%3DMLB24834408%26position%3D11%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=DcWl670cgMeSKXXqKGezOvu47zQ6Vv6JYlUYkE62NpGKG%2BYrHd%2FgxuP8DjhfVP9YvpRfHdqZxAMjfeGjLXPmrPGccCJFA%2FRB6dApMc62DUzS99WJ%2FOAEB0h233BvsroHs5xBtAcg9%2FHSPHpLNh9jyF9UmmX6if9uodxMoaMczEGFY%2BLnB%2BFazfbaS%2ByDz8JZ%2FH0%2BaT4qvT%2BeskVdJ9wC7T0vGVJ7tyrht%2FoFFGgR8egMr2pm%2F%2Bfwd%2FZq9oUphzEoYxR7qmx7mGHWoOJeLYg2jPRw4hBsjsAmNuKWIKFMBBeJuA64UHFh%2B8PfNNws26QavZ2VxZaktBEDbaSSKXY3XTGyfdQtYSxagQildQNXoQSXTac8vi8hX3%2F66VPcAuLPHA1BqGIw2KUxqWPXo5C1%2FXQxNKkyT6P0iv0mgPWbxnsH7qwLjPrmUMP73naNeobwbS0m4p0oXAeB4BnhNqZqAMYoEnjarMilWDXCkbFT5MTbBdkDPYDiYbyq16yAx2DDDXc8%2FwM%2FVdQ2blhBoh2x%2BULL3xUYkYDdKOCN%2BINEWwMKVzZAso6kAYNQl0K34qy98%2F%2FkTur0XfLCfo%2BL6Tobt5UjJPpJvBTQKER6ebUSygxrOtLaavKt1f81AF1bqoleqjhX7L5IYYRDbNpbr2BHYTezLQKcmFtiWudx%2Fo46dnGDqmd3N2rR4E9Z%2FPC%2FeM1Kwm51jVhhXxSjmJ4u8sZDM2GyhaSHxoKZmT%2Fh7HAvDxxbEcn0G%2FtwMJwioy8rN3%2B%2BtWPaFan3xwRcACqT4yIcMruZdxX4dRyppe9UyuyPmN3vs1Euu55zle%2BF5I%2F1nKpfrCyohyxnysQC4SiwgYwoxgfscmsBGdg%3D&amp;e=mclics%2Fpseudo-search-pads-buybox%2B7708%2Cmclics%2Fmax-bid-capped%2B36382%2Cmclics%2Fmax-bid-item-factor%2B23928&amp;rb=x</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>681.83</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>624.33</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -816,28 +812,32 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371#searchVariation%3DMLB24154371%26position%3D15%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408#searchVariation%3DMLB24834408%26position%3D7%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>58.13</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>610.0599999999999</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -847,32 +847,28 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615#searchVariation%3DMLB28687615%26position%3D3%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371#searchVariation%3DMLB24154371%26position%3D12%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>736.61</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -882,7 +878,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449#searchVariation%3DMLB24006449%26position%3D20%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422#searchVariation%3DMLB27687422%26position%3D16%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
@@ -892,14 +888,14 @@
           <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>634.4</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -917,28 +913,32 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652#searchVariation%3DMLB21392652%26position%3D23%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652#searchVariation%3DMLB21392652%26position%3D3%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>443.07</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -948,32 +948,28 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-preto-com-verde/p/MLB27999036#searchVariation%3DMLB27999036%26position%3D18%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712#searchVariation%3DMLB21320712%26position%3D13%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>443.07</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -983,7 +979,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712#searchVariation%3DMLB21320712%26position%3D25%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249#searchVariation%3DMLB27970249%26position%3D19%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
@@ -993,17 +989,17 @@
           <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>536.26</v>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>FONTE 120A LITE</t>
         </is>
       </c>
+      <c r="C17" t="n">
+        <v>479.81</v>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1018,23 +1014,23 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473#searchVariation%3DMLB23998473%26position%3D22%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473#searchVariation%3DMLB23998473%26position%3D17%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="C18" t="inlineStr">
+          <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C18" t="n">
+        <v>54.9</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
@@ -1049,7 +1045,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249#searchVariation%3DMLB27970249%26position%3D29%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-preto-com-verde/p/MLB27999036#searchVariation%3DMLB27999036%26position%3D21%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
@@ -1059,14 +1055,14 @@
           <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>402.79</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1084,28 +1080,32 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306#searchVariation%3DMLB21621306%26position%3D35%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306#searchVariation%3DMLB21621306%26position%3D8%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>493.42</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1115,32 +1115,28 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344#searchVariation%3DMLB32364344%26position%3D16%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208#searchVariation%3DMLB21455208%26position%3D23%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>493.42</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1150,32 +1146,28 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208#searchVariation%3DMLB21455208%26position%3D14%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344#searchVariation%3DMLB32364344%26position%3D25%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Monovolt 220v Carregador</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>774.88</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Fonte Automotiva Spark Usina 120a + Controle Jfa K600 Comple Cor Amarelo</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>699</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1185,7 +1177,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3185898952-fonte-automotiva-jfa-storm-200a-monovolt-220v-carregador-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-spark-usina-120a-controle-jfa-k600-comple-cor-amarelo/p/MLB21562625#searchVariation%3DMLB21562625%26position%3D28%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
@@ -1195,14 +1187,14 @@
           <t>Fonte Carregador Jfa Storm 120a Bivolt Slim</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1220,7 +1212,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2166850824-fonte-carregador-jfa-storm-120a-bivolt-slim-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2166850824-fonte-carregador-jfa-storm-120a-bivolt-slim-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
@@ -1230,13 +1222,13 @@
           <t xml:space="preserve"> Bíblia evangelica letra grande jumbo com harpa cristã João Ferreira de Almeida JFA Editora CPP</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="C24" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C24" t="n">
+        <v>61.96</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
@@ -1251,23 +1243,23 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/biblia-evangelica-letra-grande-jumbo-com-harpa-crist-joo-ferreira-de-almeida-jfa-editora-cpp/p/MLB20790872#searchVariation%3DMLB20790872%26position%3D17%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://www.mercadolivre.com.br/biblia-evangelica-letra-grande-jumbo-com-harpa-crist-joo-ferreira-de-almeida-jfa-editora-cpp/p/MLB20790872#searchVariation%3DMLB20790872%26position%3D32%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>364.95</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
+          <t>Fonte Carregador Automotivo Jfa Storm 200a Bivolt At/med Cca</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>845.87</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1276,73 +1268,73 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525#searchVariation%3DMLB23456525%26position%3D13%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3203676440-fonte-carregador-automotivo-jfa-storm-200a-bivolt-atmed-cca-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fonte Carregadora Jfa Bob Storm 200a Bivolt</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>694.8200000000001</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Filtro Anti-ruído E Conversor De Sinais Jfa</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>54.43</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2774547578-fonte-carregadora-jfa-bob-storm-200a-bivolt-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://produto.mercadolivre.com.br/MLB-777493114-filtro-anti-ruido-e-conversor-de-sinais-jfa-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Filtro Anti-ruído E Conversor De Sinais Jfa</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>54.43</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>326.53</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1352,27 +1344,27 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-777493114-filtro-anti-ruido-e-conversor-de-sinais-jfa-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525#searchVariation%3DMLB23456525%26position%3D34%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 60a Bivolt Carregador</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>364.95</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
+          <t>Fonte Carregador Jfa Storm Lite 200 Ah Bivolt Slim</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>610.0599999999999</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1387,130 +1379,122 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3307724882-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3296857612-fonte-carregador-jfa-storm-lite-200-ah-bivolt-slim-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>539.74</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2773051227-fonte-carregador-jfa-120a-bob-slim-bivolt-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531#searchVariation%3DMLB25707531%26position%3D20%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>Fonte Carregadora Jfa Bob Storm 200a Bivolt</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>694.8200000000001</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531#searchVariation%3DMLB25707531%26position%3D21%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2774547578-fonte-carregadora-jfa-bob-storm-200a-bivolt-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 60a Bivolt Carregador</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>390.43</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>316.8</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3366728644-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981#searchVariation%3DMLB33435981%26position%3D24%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>402.79</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v Cor Azul</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>641.27</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -1518,37 +1502,33 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833#searchVariation%3DMLB22569833%26position%3D26%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905#searchVariation%3DMLB30464905%26position%3D27%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 90a Bob Storm Bivolt</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>422.93</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>71.48</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1558,23 +1538,23 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438108066-fonte-carregador-jfa-90a-bob-storm-bivolt-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249#searchVariation%3DMLB28557249%26position%3D35%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fonte Automotivo Carregador Jfa Sci 120-a Smart Charger</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t>Fonte Automotiva Jfa Storm 60a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>473.28</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1588,30 +1568,34 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1776639477-fonte-automotivo-carregador-jfa-sci-120-a-smart-charger-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2880367123-fonte-automotiva-jfa-storm-60a-bivolt-carregador-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P/ Aparelho Original</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>Fonte Automotiva Jfa 120a Amperes Redline Voltímetro Digita</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1619,67 +1603,63 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1728157422-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1728161046-fonte-automotiva-jfa-120a-amperes-redline-voltimetro-digita-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Carregador De Bateria Jfa 60a Storm</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>443.07</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>62.82</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2205907577-fonte-automotiva-carregador-de-bateria-jfa-60a-storm-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629#searchVariation%3DMLB27685629%26position%3D22%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 200a Bivolt At/med Cca</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>845.87</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
+          <t>Fonte Automotiva Jfa Storm Lite 60a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>326.53</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1689,28 +1669,28 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3203676440-fonte-carregador-automotivo-jfa-storm-200a-bivolt-atmed-cca-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3307724882-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>499.46</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
+          <t>Fonte Automotiva Jfa Storm 70a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>523.63</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1724,12 +1704,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2743195681-fonte-carregador-jfa-120a-bob-slim-bivolt-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2880277367-fonte-automotiva-jfa-storm-70a-bivolt-carregador-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
@@ -1739,13 +1719,13 @@
           <t>Kit 1 Ci Sg3524 / 1 Ci 4427 Kit Fonte Usina E Jfa</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
         <v>19.9</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
@@ -1760,25 +1740,29 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1740692515-kit-1-ci-sg3524-1-ci-4427-kit-fonte-usina-e-jfa-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1740692515-kit-1-ci-sg3524-1-ci-4427-kit-fonte-usina-e-jfa-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Fonte E Carregador Bateria Bivolt Jfa Storm 150a Digital Cca</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>7899</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>Nova Fonte Carregador Jfa Storm 120a Bivolt</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1786,33 +1770,37 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-e-carregador-bateria-bivolt-jfa-storm-150a-digital-cca/p/MLB21562754#searchVariation%3DMLB21562754%26position%3D30%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2161622663-nova-fonte-carregador-jfa-storm-120a-bivolt-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr 1200 Metros</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>402.79</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1822,23 +1810,23 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2611261904-controle-longa-distancia-jfa-redline-wr-1200-metros-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833#searchVariation%3DMLB22569833%26position%3D26%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Spark Usina 120a + Controle Jfa K600 Comple Cor Amarelo</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>699</v>
-      </c>
-      <c r="C42" t="inlineStr">
+          <t>Controle Longa Distancia Jfa Redline Wr 1200 Metros</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C42" t="n">
+        <v>78.90000000000001</v>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
@@ -1848,33 +1836,37 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-spark-usina-120a-controle-jfa-k600-comple-cor-amarelo/p/MLB21562625#searchVariation%3DMLB21562625%26position%3D27%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2611261904-controle-longa-distancia-jfa-redline-wr-1200-metros-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>60.99</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>Fonte Carregador Jfa 90a Bob Storm Bivolt</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>422.93</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1884,29 +1876,25 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629#searchVariation%3DMLB27685629%26position%3D34%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4438108066-fonte-carregador-jfa-90a-bob-storm-bivolt-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Storm 120a Jfa Amperes  Carregador</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Mono 220v</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>774.88</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1919,23 +1907,23 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2202478931-fonte-automotiva-storm-120a-jfa-amperes-carregador-_JM#position%3D51%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2213756050-fonte-automotiva-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>316.8</v>
-      </c>
-      <c r="C45" t="inlineStr">
+          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C45" t="n">
+        <v>56.31</v>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
@@ -1945,30 +1933,34 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981#searchVariation%3DMLB33435981%26position%3D32%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096#searchVariation%3DMLB30476096%26position%3D33%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>63.9</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+          <t>Fonte Carregador Jfa 120a Storm Bivolt Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1976,32 +1968,32 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422#searchVariation%3DMLB27687422%26position%3D33%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2166702825-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Som Automotivo Modulo Fonte Carregador Jfa 200 Amperes Sci</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>845.88</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Inteligente Sci</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>674.6799999999999</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2016,29 +2008,25 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2645992805-som-automotivo-modulo-fonte-carregador-jfa-200-amperes-sci-_JM#position%3D52%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2210266820-fonte-automotiva-120a-amperes-jfa-carregador-inteligente-sci-_JM#position%3D51%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 120a Amperes Redline Voltímetro Digita</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Voltimetro Sequenciador Digital Jfa Vs5hi Led Vermelho.</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>55.23</v>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2046,30 +2034,34 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1728161046-fonte-automotiva-jfa-120a-amperes-redline-voltimetro-digita-_JM#position%3D53%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2037736213-voltimetro-sequenciador-digital-jfa-vs5hi-led-vermelho-_JM#position%3D52%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Acqua Completo Top Branco</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>Fonte Carregador Jfa Bob 200 Amperes Bivolt Inteligente Full</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>694.8200000000001</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2077,28 +2069,28 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724250180-controle-longa-distancia-jfa-k1200-acqua-completo-top-branco-_JM#position%3D54%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2717118978-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM?searchVariation=179005791385#searchVariation%3D179005791385%26position%3D53%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Nova Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>443.07</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
+          <t>Fonte Carregador Inteligente Jfa 120 Amperes Voltímetro Sci</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>674.6799999999999</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2117,29 +2109,25 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3744103525-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D55%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2210268079-fonte-carregador-inteligente-jfa-120-amperes-voltimetro-sci-_JM#position%3D54%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Automotivo Com 120 Amperes Medidor Cca</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>634.41</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+          <t>Controle Longa Distancia Jfa 1200mtr Wr P/ 99% Dos Aparelhos</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>89</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2152,23 +2140,23 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-automotivo-com-120-amperes-medidor-cca/p/MLB27870129#searchVariation%3DMLB27870129%26position%3D31%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-1200mtr-wr-p-99-dos-aparelhos/p/MLB29428332#searchVariation%3DMLB29428332%26position%3D29%26search_layout%3Dstack%26type%3Dproduct%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Redline 1200 Metros Vermelho</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="C52" t="inlineStr">
+          <t>Controle Longa Distancia Jfa K1200 Acqua Completo Top Branco</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C52" t="n">
+        <v>68.90000000000001</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
@@ -2183,7 +2171,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3860735858-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D56%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ccaa9da-708f-41b2-b191-00ac222b9442</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724250180-controle-longa-distancia-jfa-k1200-acqua-completo-top-branco-_JM#position%3D56%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Da4561606-ecf4-451f-8fae-461875e5756a</t>
         </is>
       </c>
     </row>
